--- a/database/database_pesquisas.xlsx
+++ b/database/database_pesquisas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\CAESB\Unidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B599158C-2776-472C-B433-33110AB7114F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF6CE2-0B9B-4882-954D-B8865B4975CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2559,9 +2559,6 @@
     <t>avaliacao_quali_agua</t>
   </si>
   <si>
-    <t>avaliacao_abastecimento_agua</t>
-  </si>
-  <si>
     <t>Insatisfeito com o serviço</t>
   </si>
   <si>
@@ -3220,6 +3217,9 @@
   </si>
   <si>
     <t xml:space="preserve">Usuário sugere que Caesb melhore o acesso ao App e Site, informa que serviços não são esclarecidos pelos canais virtuais. </t>
+  </si>
+  <si>
+    <t>avaliacao_abastecimento</t>
   </si>
 </sst>
 </file>
@@ -3286,7 +3286,7 @@
     <tableColumn id="3" xr3:uid="{E4FCC746-2711-4E4C-8A89-1AC117BF630D}" name="qualidade_agua"/>
     <tableColumn id="4" xr3:uid="{8164A152-4D75-4A0C-B25C-E4DB59120BD2}" name="avaliacao_quali_agua"/>
     <tableColumn id="5" xr3:uid="{E79C747F-C523-43C6-A863-64F3BDBA7C74}" name="continuidade_abastecimento_agua"/>
-    <tableColumn id="6" xr3:uid="{3A825A46-0D15-451F-9226-7A8532DA1B13}" name="avaliacao_abastecimento_agua"/>
+    <tableColumn id="6" xr3:uid="{3A825A46-0D15-451F-9226-7A8532DA1B13}" name="avaliacao_abastecimento"/>
     <tableColumn id="7" xr3:uid="{DCD40982-33BD-47FD-993D-D6A59C742560}" name="sistema_esgoto"/>
     <tableColumn id="8" xr3:uid="{BD46F2D0-69AE-4AF3-95B7-E9082BDF3857}" name="avaliacao_esgoto"/>
     <tableColumn id="9" xr3:uid="{99C2C26D-B521-4A72-A2CE-EAA73B3CD776}" name="imagem_caesb"/>
@@ -3572,7 +3572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C1:C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,43 +3608,43 @@
         <v>827</v>
       </c>
       <c r="F1" t="s">
-        <v>844</v>
+        <v>1064</v>
       </c>
       <c r="G1" t="s">
         <v>828</v>
       </c>
       <c r="H1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I1" t="s">
         <v>829</v>
       </c>
       <c r="J1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K1" t="s">
         <v>830</v>
       </c>
       <c r="L1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M1" t="s">
         <v>831</v>
       </c>
       <c r="N1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O1" t="s">
         <v>832</v>
       </c>
       <c r="P1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q1" t="s">
         <v>833</v>
       </c>
       <c r="R1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S1" t="s">
         <v>834</v>
@@ -28009,13 +28009,13 @@
         <v>1</v>
       </c>
       <c r="J683" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K683">
         <v>1</v>
       </c>
       <c r="L683" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M683">
         <v>1</v>
@@ -28033,10 +28033,10 @@
         <v>1</v>
       </c>
       <c r="R683" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="S683" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="684" spans="1:19" x14ac:dyDescent="0.25">
@@ -28094,7 +28094,7 @@
         <v>1</v>
       </c>
       <c r="H685" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I685">
         <v>4</v>
@@ -28115,7 +28115,7 @@
         <v>5</v>
       </c>
       <c r="S685" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="686" spans="1:19" x14ac:dyDescent="0.25">
@@ -28150,7 +28150,7 @@
         <v>4</v>
       </c>
       <c r="S686" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="687" spans="1:19" x14ac:dyDescent="0.25">
@@ -28211,28 +28211,28 @@
         <v>1</v>
       </c>
       <c r="L688" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M688">
         <v>1</v>
       </c>
       <c r="N688" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O688">
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="Q688">
         <v>1</v>
       </c>
       <c r="R688" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="S688" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="689" spans="1:19" x14ac:dyDescent="0.25">
@@ -28375,7 +28375,7 @@
         <v>2</v>
       </c>
       <c r="N692" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O692">
         <v>5</v>
@@ -28384,7 +28384,7 @@
         <v>5</v>
       </c>
       <c r="S692" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="693" spans="1:19" x14ac:dyDescent="0.25">
@@ -28495,7 +28495,7 @@
         <v>4</v>
       </c>
       <c r="S695" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="696" spans="1:19" x14ac:dyDescent="0.25">
@@ -28530,7 +28530,7 @@
         <v>5</v>
       </c>
       <c r="S696" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="697" spans="1:19" x14ac:dyDescent="0.25">
@@ -28565,7 +28565,7 @@
         <v>5</v>
       </c>
       <c r="S697" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="698" spans="1:19" x14ac:dyDescent="0.25">
@@ -28635,7 +28635,7 @@
         <v>4</v>
       </c>
       <c r="S699" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="700" spans="1:19" x14ac:dyDescent="0.25">
@@ -28655,7 +28655,7 @@
         <v>1</v>
       </c>
       <c r="H700" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I700">
         <v>2</v>
@@ -28679,7 +28679,7 @@
         <v>4</v>
       </c>
       <c r="S700" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="701" spans="1:19" x14ac:dyDescent="0.25">
@@ -28714,7 +28714,7 @@
         <v>5</v>
       </c>
       <c r="S701" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="702" spans="1:19" x14ac:dyDescent="0.25">
@@ -28749,7 +28749,7 @@
         <v>5</v>
       </c>
       <c r="S702" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="703" spans="1:19" x14ac:dyDescent="0.25">
@@ -28784,7 +28784,7 @@
         <v>3</v>
       </c>
       <c r="S703" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="704" spans="1:19" x14ac:dyDescent="0.25">
@@ -28819,10 +28819,10 @@
         <v>2</v>
       </c>
       <c r="R704" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="S704" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="705" spans="1:19" x14ac:dyDescent="0.25">
@@ -28892,7 +28892,7 @@
         <v>5</v>
       </c>
       <c r="S706" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="707" spans="1:19" x14ac:dyDescent="0.25">
@@ -28930,7 +28930,7 @@
         <v>4</v>
       </c>
       <c r="S707" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="708" spans="1:19" x14ac:dyDescent="0.25">
@@ -28965,7 +28965,7 @@
         <v>5</v>
       </c>
       <c r="S708" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="709" spans="1:19" x14ac:dyDescent="0.25">
@@ -28985,13 +28985,13 @@
         <v>1</v>
       </c>
       <c r="H709" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I709">
         <v>2</v>
       </c>
       <c r="J709" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K709">
         <v>3</v>
@@ -29006,7 +29006,7 @@
         <v>4</v>
       </c>
       <c r="S709" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="710" spans="1:19" x14ac:dyDescent="0.25">
@@ -29029,7 +29029,7 @@
         <v>2</v>
       </c>
       <c r="J710" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K710">
         <v>4</v>
@@ -29085,7 +29085,7 @@
         <v>4</v>
       </c>
       <c r="S711" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="712" spans="1:19" x14ac:dyDescent="0.25">
@@ -29108,7 +29108,7 @@
         <v>2</v>
       </c>
       <c r="J712" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K712">
         <v>5</v>
@@ -29123,7 +29123,7 @@
         <v>5</v>
       </c>
       <c r="S712" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="713" spans="1:19" x14ac:dyDescent="0.25">
@@ -29149,25 +29149,25 @@
         <v>1</v>
       </c>
       <c r="J713" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K713">
         <v>1</v>
       </c>
       <c r="L713" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M713">
         <v>1</v>
       </c>
       <c r="N713" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O713">
         <v>1</v>
       </c>
       <c r="P713" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q713">
         <v>3</v>
@@ -29193,7 +29193,7 @@
         <v>1</v>
       </c>
       <c r="H714" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I714">
         <v>4</v>
@@ -29211,7 +29211,7 @@
         <v>3</v>
       </c>
       <c r="S714" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="715" spans="1:19" x14ac:dyDescent="0.25">
@@ -29246,7 +29246,7 @@
         <v>4</v>
       </c>
       <c r="S715" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="716" spans="1:19" x14ac:dyDescent="0.25">
@@ -29266,7 +29266,7 @@
         <v>1</v>
       </c>
       <c r="H716" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I716">
         <v>5</v>
@@ -29319,7 +29319,7 @@
         <v>5</v>
       </c>
       <c r="S717" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="718" spans="1:19" x14ac:dyDescent="0.25">
@@ -29339,7 +29339,7 @@
         <v>1</v>
       </c>
       <c r="H718" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I718">
         <v>4</v>
@@ -29351,7 +29351,7 @@
         <v>1</v>
       </c>
       <c r="N718" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O718">
         <v>4</v>
@@ -29360,10 +29360,10 @@
         <v>1</v>
       </c>
       <c r="R718" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="S718" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="719" spans="1:19" x14ac:dyDescent="0.25">
@@ -29459,7 +29459,7 @@
         <v>1</v>
       </c>
       <c r="H721" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I721">
         <v>4</v>
@@ -29512,7 +29512,7 @@
         <v>5</v>
       </c>
       <c r="S722" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="723" spans="1:19" x14ac:dyDescent="0.25">
@@ -29541,19 +29541,19 @@
         <v>2</v>
       </c>
       <c r="L723" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M723">
         <v>2</v>
       </c>
       <c r="N723" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O723">
         <v>2</v>
       </c>
       <c r="P723" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q723">
         <v>5</v>
@@ -29579,7 +29579,7 @@
         <v>1</v>
       </c>
       <c r="H724" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I724">
         <v>5</v>
@@ -29623,25 +29623,25 @@
         <v>1</v>
       </c>
       <c r="J725" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K725">
         <v>1</v>
       </c>
       <c r="L725" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M725">
         <v>1</v>
       </c>
       <c r="N725" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O725">
         <v>1</v>
       </c>
       <c r="P725" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q725">
         <v>5</v>
@@ -29702,7 +29702,7 @@
         <v>2</v>
       </c>
       <c r="H727" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I727">
         <v>5</v>
@@ -29711,7 +29711,7 @@
         <v>2</v>
       </c>
       <c r="L727" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="M727">
         <v>2</v>
@@ -29764,7 +29764,7 @@
         <v>3</v>
       </c>
       <c r="S728" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="729" spans="1:19" x14ac:dyDescent="0.25">
@@ -29802,13 +29802,13 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q729">
         <v>2</v>
       </c>
       <c r="R729" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="S729" t="s">
         <v>502</v>
@@ -29846,7 +29846,7 @@
         <v>4</v>
       </c>
       <c r="S730" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="731" spans="1:19" x14ac:dyDescent="0.25">
@@ -29872,7 +29872,7 @@
         <v>2</v>
       </c>
       <c r="L731" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M731">
         <v>2</v>
@@ -29887,7 +29887,7 @@
         <v>3</v>
       </c>
       <c r="S731" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="732" spans="1:19" x14ac:dyDescent="0.25">
@@ -29904,19 +29904,19 @@
         <v>2</v>
       </c>
       <c r="F732" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G732">
         <v>2</v>
       </c>
       <c r="H732" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I732">
         <v>2</v>
       </c>
       <c r="J732" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K732">
         <v>4</v>
@@ -29966,7 +29966,7 @@
         <v>5</v>
       </c>
       <c r="S733" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="734" spans="1:19" x14ac:dyDescent="0.25">
@@ -29986,13 +29986,13 @@
         <v>1</v>
       </c>
       <c r="H734" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I734">
         <v>2</v>
       </c>
       <c r="J734" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K734">
         <v>4</v>
@@ -30051,7 +30051,7 @@
         <v>2</v>
       </c>
       <c r="R735" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="S735" t="s">
         <v>48</v>
@@ -30086,7 +30086,7 @@
         <v>2</v>
       </c>
       <c r="P736" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q736">
         <v>5</v>
@@ -30127,7 +30127,7 @@
         <v>5</v>
       </c>
       <c r="S737" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="738" spans="1:19" x14ac:dyDescent="0.25">
@@ -30150,7 +30150,7 @@
         <v>2</v>
       </c>
       <c r="J738" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K738">
         <v>3</v>
@@ -30217,7 +30217,7 @@
         <v>2</v>
       </c>
       <c r="F740" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G740">
         <v>3</v>
@@ -30229,13 +30229,13 @@
         <v>1</v>
       </c>
       <c r="L740" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M740">
         <v>1</v>
       </c>
       <c r="N740" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O740">
         <v>3</v>
@@ -30244,7 +30244,7 @@
         <v>5</v>
       </c>
       <c r="S740" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="741" spans="1:19" x14ac:dyDescent="0.25">
@@ -30338,7 +30338,7 @@
         <v>4</v>
       </c>
       <c r="S742" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="743" spans="1:19" x14ac:dyDescent="0.25">
@@ -30373,7 +30373,7 @@
         <v>5</v>
       </c>
       <c r="S743" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="744" spans="1:19" x14ac:dyDescent="0.25">
@@ -30408,7 +30408,7 @@
         <v>5</v>
       </c>
       <c r="S744" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="745" spans="1:19" x14ac:dyDescent="0.25">
@@ -30443,7 +30443,7 @@
         <v>5</v>
       </c>
       <c r="S745" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="746" spans="1:19" x14ac:dyDescent="0.25">
@@ -30478,7 +30478,7 @@
         <v>5</v>
       </c>
       <c r="S746" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="747" spans="1:19" x14ac:dyDescent="0.25">
@@ -30498,7 +30498,7 @@
         <v>2</v>
       </c>
       <c r="H747" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I747">
         <v>4</v>
@@ -30519,7 +30519,7 @@
         <v>4</v>
       </c>
       <c r="S747" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="748" spans="1:19" x14ac:dyDescent="0.25">
@@ -30572,7 +30572,7 @@
         <v>838</v>
       </c>
       <c r="S748" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="749" spans="1:19" x14ac:dyDescent="0.25">
@@ -30598,13 +30598,13 @@
         <v>2</v>
       </c>
       <c r="L749" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M749">
         <v>2</v>
       </c>
       <c r="N749" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O749">
         <v>4</v>
@@ -30613,7 +30613,7 @@
         <v>4</v>
       </c>
       <c r="S749" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="750" spans="1:19" x14ac:dyDescent="0.25">
@@ -30648,7 +30648,7 @@
         <v>5</v>
       </c>
       <c r="S750" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="751" spans="1:19" x14ac:dyDescent="0.25">
@@ -30686,7 +30686,7 @@
         <v>3</v>
       </c>
       <c r="S751" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="752" spans="1:19" x14ac:dyDescent="0.25">
@@ -30721,7 +30721,7 @@
         <v>5</v>
       </c>
       <c r="S752" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="753" spans="1:19" x14ac:dyDescent="0.25">
@@ -30756,7 +30756,7 @@
         <v>4</v>
       </c>
       <c r="S753" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="754" spans="1:19" x14ac:dyDescent="0.25">
@@ -30797,7 +30797,7 @@
         <v>5</v>
       </c>
       <c r="S754" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="755" spans="1:19" x14ac:dyDescent="0.25">
@@ -30855,25 +30855,25 @@
         <v>1</v>
       </c>
       <c r="J756" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K756">
         <v>2</v>
       </c>
       <c r="L756" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M756">
         <v>2</v>
       </c>
       <c r="N756" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O756">
         <v>2</v>
       </c>
       <c r="P756" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q756">
         <v>3</v>
@@ -30949,7 +30949,7 @@
         <v>5</v>
       </c>
       <c r="S758" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="759" spans="1:19" x14ac:dyDescent="0.25">
@@ -30984,7 +30984,7 @@
         <v>5</v>
       </c>
       <c r="S759" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="760" spans="1:19" x14ac:dyDescent="0.25">
@@ -31019,7 +31019,7 @@
         <v>5</v>
       </c>
       <c r="S760" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="761" spans="1:19" x14ac:dyDescent="0.25">
@@ -31039,7 +31039,7 @@
         <v>2</v>
       </c>
       <c r="H761" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I761">
         <v>4</v>
@@ -31083,7 +31083,7 @@
         <v>2</v>
       </c>
       <c r="H762" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I762">
         <v>5</v>
@@ -31101,7 +31101,7 @@
         <v>5</v>
       </c>
       <c r="S762" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="763" spans="1:19" x14ac:dyDescent="0.25">
@@ -31136,7 +31136,7 @@
         <v>5</v>
       </c>
       <c r="S763" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="764" spans="1:19" x14ac:dyDescent="0.25">
@@ -31171,7 +31171,7 @@
         <v>5</v>
       </c>
       <c r="S764" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="765" spans="1:19" x14ac:dyDescent="0.25">
@@ -31209,7 +31209,7 @@
         <v>5</v>
       </c>
       <c r="S765" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="766" spans="1:19" x14ac:dyDescent="0.25">
@@ -31244,7 +31244,7 @@
         <v>4</v>
       </c>
       <c r="S766" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="767" spans="1:19" x14ac:dyDescent="0.25">
@@ -31264,7 +31264,7 @@
         <v>1</v>
       </c>
       <c r="H767" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I767">
         <v>4</v>
@@ -31282,7 +31282,7 @@
         <v>5</v>
       </c>
       <c r="S767" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="768" spans="1:19" x14ac:dyDescent="0.25">
@@ -31302,7 +31302,7 @@
         <v>1</v>
       </c>
       <c r="H768" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I768">
         <v>3</v>
@@ -31320,7 +31320,7 @@
         <v>5</v>
       </c>
       <c r="S768" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="769" spans="1:19" x14ac:dyDescent="0.25">
@@ -31355,7 +31355,7 @@
         <v>4</v>
       </c>
       <c r="S769" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="770" spans="1:19" x14ac:dyDescent="0.25">
@@ -31437,7 +31437,7 @@
         <v>5</v>
       </c>
       <c r="S771" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="772" spans="1:19" x14ac:dyDescent="0.25">
@@ -31472,7 +31472,7 @@
         <v>5</v>
       </c>
       <c r="S772" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="773" spans="1:19" x14ac:dyDescent="0.25">
@@ -31498,28 +31498,28 @@
         <v>1</v>
       </c>
       <c r="L773" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M773">
         <v>1</v>
       </c>
       <c r="N773" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O773">
         <v>2</v>
       </c>
       <c r="P773" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="Q773">
         <v>2</v>
       </c>
       <c r="R773" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="S773" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="774" spans="1:19" x14ac:dyDescent="0.25">
@@ -31542,19 +31542,19 @@
         <v>2</v>
       </c>
       <c r="J774" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K774">
         <v>2</v>
       </c>
       <c r="L774" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M774">
         <v>2</v>
       </c>
       <c r="N774" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O774">
         <v>2</v>
@@ -31566,10 +31566,10 @@
         <v>2</v>
       </c>
       <c r="R774" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S774" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="775" spans="1:19" x14ac:dyDescent="0.25">
@@ -31604,7 +31604,7 @@
         <v>1</v>
       </c>
       <c r="N775" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O775">
         <v>3</v>
@@ -31613,7 +31613,7 @@
         <v>5</v>
       </c>
       <c r="S775" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="776" spans="1:19" x14ac:dyDescent="0.25">
@@ -31636,7 +31636,7 @@
         <v>1</v>
       </c>
       <c r="J776" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K776">
         <v>5</v>
@@ -31756,7 +31756,7 @@
         <v>5</v>
       </c>
       <c r="S779" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="780" spans="1:19" x14ac:dyDescent="0.25">
@@ -31788,16 +31788,16 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q780">
         <v>2</v>
       </c>
       <c r="R780" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="S780" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="781" spans="1:19" x14ac:dyDescent="0.25">
@@ -31858,13 +31858,13 @@
         <v>2</v>
       </c>
       <c r="J782" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K782">
         <v>2</v>
       </c>
       <c r="L782" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="M782">
         <v>1</v>
@@ -31876,7 +31876,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q782">
         <v>1</v>
@@ -31911,25 +31911,25 @@
         <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K783">
         <v>1</v>
       </c>
       <c r="L783" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M783">
         <v>2</v>
       </c>
       <c r="N783" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O783">
         <v>2</v>
       </c>
       <c r="P783" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q783">
         <v>3</v>
@@ -31955,7 +31955,7 @@
         <v>2</v>
       </c>
       <c r="H784" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I784">
         <v>3</v>
@@ -31993,7 +31993,7 @@
         <v>1</v>
       </c>
       <c r="H785" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I785">
         <v>4</v>
@@ -32101,7 +32101,7 @@
         <v>1</v>
       </c>
       <c r="H788" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I788">
         <v>4</v>
@@ -32110,7 +32110,7 @@
         <v>1</v>
       </c>
       <c r="L788" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M788">
         <v>5</v>
@@ -32119,7 +32119,7 @@
         <v>1</v>
       </c>
       <c r="P788" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q788">
         <v>3</v>
@@ -32160,7 +32160,7 @@
         <v>4</v>
       </c>
       <c r="S789" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="790" spans="1:19" x14ac:dyDescent="0.25">
@@ -32180,7 +32180,7 @@
         <v>2</v>
       </c>
       <c r="H790" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I790">
         <v>3</v>
@@ -32198,7 +32198,7 @@
         <v>5</v>
       </c>
       <c r="S790" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="791" spans="1:19" x14ac:dyDescent="0.25">
@@ -32224,7 +32224,7 @@
         <v>1</v>
       </c>
       <c r="L791" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M791">
         <v>4</v>
@@ -32236,7 +32236,7 @@
         <v>4</v>
       </c>
       <c r="S791" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="792" spans="1:19" x14ac:dyDescent="0.25">
@@ -32271,7 +32271,7 @@
         <v>4</v>
       </c>
       <c r="S792" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="793" spans="1:19" x14ac:dyDescent="0.25">
@@ -32306,7 +32306,7 @@
         <v>4</v>
       </c>
       <c r="S793" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="794" spans="1:19" x14ac:dyDescent="0.25">
@@ -32405,13 +32405,13 @@
         <v>1</v>
       </c>
       <c r="L796" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="M796">
         <v>1</v>
       </c>
       <c r="N796" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O796">
         <v>3</v>
@@ -32446,7 +32446,7 @@
         <v>2</v>
       </c>
       <c r="L797" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="M797">
         <v>3</v>
@@ -32458,7 +32458,7 @@
         <v>4</v>
       </c>
       <c r="S797" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="798" spans="1:19" x14ac:dyDescent="0.25">
@@ -32478,7 +32478,7 @@
         <v>1</v>
       </c>
       <c r="H798" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I798">
         <v>3</v>
@@ -32487,7 +32487,7 @@
         <v>2</v>
       </c>
       <c r="L798" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M798">
         <v>3</v>
@@ -32575,7 +32575,7 @@
         <v>5</v>
       </c>
       <c r="S800" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="801" spans="1:19" x14ac:dyDescent="0.25">
@@ -32613,7 +32613,7 @@
         <v>62</v>
       </c>
       <c r="S801" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="802" spans="1:19" x14ac:dyDescent="0.25">
@@ -32709,7 +32709,7 @@
         <v>1</v>
       </c>
       <c r="L804" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M804">
         <v>3</v>
@@ -32721,7 +32721,7 @@
         <v>5</v>
       </c>
       <c r="S804" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="805" spans="1:19" x14ac:dyDescent="0.25">
@@ -32741,7 +32741,7 @@
         <v>1</v>
       </c>
       <c r="H805" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I805">
         <v>1</v>
@@ -32762,7 +32762,7 @@
         <v>5</v>
       </c>
       <c r="S805" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="806" spans="1:19" x14ac:dyDescent="0.25">
@@ -32797,7 +32797,7 @@
         <v>4</v>
       </c>
       <c r="S806" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="807" spans="1:19" x14ac:dyDescent="0.25">
@@ -32820,7 +32820,7 @@
         <v>2</v>
       </c>
       <c r="J807" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K807">
         <v>3</v>
@@ -32835,7 +32835,7 @@
         <v>4</v>
       </c>
       <c r="S807" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="808" spans="1:19" x14ac:dyDescent="0.25">
@@ -32887,7 +32887,7 @@
         <v>2</v>
       </c>
       <c r="H809" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I809">
         <v>4</v>
@@ -32931,7 +32931,7 @@
         <v>1</v>
       </c>
       <c r="N810" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O810">
         <v>3</v>
@@ -32989,7 +32989,7 @@
         <v>1</v>
       </c>
       <c r="H812" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I812">
         <v>4</v>
@@ -33088,7 +33088,7 @@
         <v>2</v>
       </c>
       <c r="H815" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I815">
         <v>4</v>
@@ -33129,7 +33129,7 @@
         <v>2</v>
       </c>
       <c r="L816" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M816">
         <v>3</v>
@@ -33161,7 +33161,7 @@
         <v>2</v>
       </c>
       <c r="H817" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I817">
         <v>5</v>
@@ -33298,7 +33298,7 @@
         <v>1</v>
       </c>
       <c r="F821" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G821">
         <v>3</v>
@@ -33307,19 +33307,19 @@
         <v>1</v>
       </c>
       <c r="J821" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K821">
         <v>1</v>
       </c>
       <c r="L821" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M821">
         <v>2</v>
       </c>
       <c r="N821" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O821">
         <v>3</v>
@@ -33354,7 +33354,7 @@
         <v>2</v>
       </c>
       <c r="N822" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O822">
         <v>4</v>
@@ -33389,7 +33389,7 @@
         <v>2</v>
       </c>
       <c r="N823" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O823">
         <v>5</v>
@@ -33639,7 +33639,7 @@
         <v>1</v>
       </c>
       <c r="H831" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I831">
         <v>3</v>
@@ -33648,13 +33648,13 @@
         <v>2</v>
       </c>
       <c r="L831" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M831">
         <v>2</v>
       </c>
       <c r="N831" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O831">
         <v>3</v>
@@ -33849,7 +33849,7 @@
         <v>2</v>
       </c>
       <c r="L837" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M837">
         <v>5</v>
@@ -33910,7 +33910,7 @@
         <v>1</v>
       </c>
       <c r="H839" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I839">
         <v>3</v>
@@ -33919,7 +33919,7 @@
         <v>1</v>
       </c>
       <c r="L839" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M839">
         <v>1</v>
@@ -34047,7 +34047,7 @@
         <v>1</v>
       </c>
       <c r="H843" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I843">
         <v>4</v>
@@ -34059,7 +34059,7 @@
         <v>1</v>
       </c>
       <c r="N843" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O843">
         <v>3</v>
@@ -34091,7 +34091,7 @@
         <v>2</v>
       </c>
       <c r="L844" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M844">
         <v>3</v>
@@ -34190,19 +34190,19 @@
         <v>2</v>
       </c>
       <c r="L847" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M847">
         <v>1</v>
       </c>
       <c r="N847" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O847">
         <v>2</v>
       </c>
       <c r="P847" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Q847">
         <v>5</v>
@@ -34484,7 +34484,7 @@
         <v>2</v>
       </c>
       <c r="H856" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I856">
         <v>3</v>
@@ -34624,7 +34624,7 @@
         <v>2</v>
       </c>
       <c r="N860" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O860">
         <v>3</v>
@@ -34647,7 +34647,7 @@
         <v>2</v>
       </c>
       <c r="F861" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G861">
         <v>3</v>
@@ -34694,7 +34694,7 @@
         <v>2</v>
       </c>
       <c r="N862" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O862">
         <v>5</v>
@@ -34802,7 +34802,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="866" spans="1:18" x14ac:dyDescent="0.25">
@@ -34956,19 +34956,19 @@
         <v>1</v>
       </c>
       <c r="L870" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M870">
         <v>1</v>
       </c>
       <c r="N870" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O870">
         <v>1</v>
       </c>
       <c r="P870" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q870">
         <v>5</v>
@@ -35055,7 +35055,7 @@
         <v>2</v>
       </c>
       <c r="H873" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I873">
         <v>5</v>
@@ -35160,13 +35160,13 @@
         <v>1</v>
       </c>
       <c r="L876" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M876">
         <v>1</v>
       </c>
       <c r="N876" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O876">
         <v>3</v>
@@ -35262,7 +35262,7 @@
         <v>1</v>
       </c>
       <c r="L879" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M879">
         <v>3</v>
@@ -35387,7 +35387,7 @@
         <v>2</v>
       </c>
       <c r="H883" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I883">
         <v>3</v>
@@ -35399,7 +35399,7 @@
         <v>2</v>
       </c>
       <c r="N883" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O883">
         <v>3</v>
@@ -35585,7 +35585,7 @@
         <v>1</v>
       </c>
       <c r="H889" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I889">
         <v>4</v>
@@ -35594,7 +35594,7 @@
         <v>1</v>
       </c>
       <c r="L889" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M889">
         <v>1</v>
@@ -35638,7 +35638,7 @@
         <v>1</v>
       </c>
       <c r="N890" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O890">
         <v>4</v>
@@ -35696,7 +35696,7 @@
         <v>2</v>
       </c>
       <c r="H892" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I892">
         <v>5</v>
@@ -35731,37 +35731,37 @@
         <v>2</v>
       </c>
       <c r="H893" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I893">
         <v>2</v>
       </c>
       <c r="J893" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K893">
         <v>1</v>
       </c>
       <c r="L893" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M893">
         <v>1</v>
       </c>
       <c r="N893" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O893">
         <v>1</v>
       </c>
       <c r="P893" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q893">
         <v>2</v>
       </c>
       <c r="R893" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="894" spans="1:18" x14ac:dyDescent="0.25">
@@ -35979,7 +35979,7 @@
         <v>2</v>
       </c>
       <c r="L900" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M900">
         <v>4</v>
@@ -35991,7 +35991,7 @@
         <v>1</v>
       </c>
       <c r="R900" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="901" spans="1:18" x14ac:dyDescent="0.25">
@@ -36075,7 +36075,7 @@
         <v>2</v>
       </c>
       <c r="H903" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I903">
         <v>4</v>
@@ -36302,7 +36302,7 @@
         <v>1</v>
       </c>
       <c r="H910" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I910">
         <v>5</v>
@@ -36349,7 +36349,7 @@
         <v>1</v>
       </c>
       <c r="P911" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q911">
         <v>4</v>
@@ -36436,7 +36436,7 @@
         <v>1</v>
       </c>
       <c r="H914" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I914">
         <v>5</v>
@@ -36620,25 +36620,25 @@
         <v>1</v>
       </c>
       <c r="L919" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="M919">
         <v>1</v>
       </c>
       <c r="N919" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O919">
         <v>1</v>
       </c>
       <c r="P919" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q919">
         <v>1</v>
       </c>
       <c r="R919" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="920" spans="1:18" x14ac:dyDescent="0.25">
@@ -36725,7 +36725,7 @@
         <v>2</v>
       </c>
       <c r="J922" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K922">
         <v>4</v>
@@ -36833,13 +36833,13 @@
         <v>1</v>
       </c>
       <c r="J925" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K925">
         <v>2</v>
       </c>
       <c r="L925" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M925">
         <v>1</v>
@@ -36851,7 +36851,7 @@
         <v>1</v>
       </c>
       <c r="P925" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q925">
         <v>4</v>
@@ -36941,7 +36941,7 @@
         <v>2</v>
       </c>
       <c r="H928" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I928">
         <v>4</v>
@@ -37366,7 +37366,7 @@
         <v>2</v>
       </c>
       <c r="L941" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M941">
         <v>2</v>
@@ -37526,7 +37526,7 @@
         <v>1</v>
       </c>
       <c r="H946" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I946">
         <v>3</v>
@@ -37631,19 +37631,19 @@
         <v>2</v>
       </c>
       <c r="F949" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G949">
         <v>2</v>
       </c>
       <c r="H949" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I949">
         <v>2</v>
       </c>
       <c r="J949" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K949">
         <v>3</v>
@@ -37658,7 +37658,7 @@
         <v>2</v>
       </c>
       <c r="R949" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="950" spans="1:18" x14ac:dyDescent="0.25">
@@ -37696,7 +37696,7 @@
         <v>2</v>
       </c>
       <c r="P950" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q950">
         <v>5</v>
@@ -37786,13 +37786,13 @@
         <v>2</v>
       </c>
       <c r="J953" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K953">
         <v>2</v>
       </c>
       <c r="L953" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="M953">
         <v>1</v>
@@ -37888,7 +37888,7 @@
         <v>2</v>
       </c>
       <c r="H956" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I956">
         <v>5</v>
@@ -38083,7 +38083,7 @@
         <v>5</v>
       </c>
       <c r="F962" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G962">
         <v>3</v>
@@ -38182,7 +38182,7 @@
         <v>2</v>
       </c>
       <c r="F965" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G965">
         <v>4</v>
@@ -38191,13 +38191,13 @@
         <v>1</v>
       </c>
       <c r="J965" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K965">
         <v>1</v>
       </c>
       <c r="L965" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M965">
         <v>1</v>
@@ -38209,13 +38209,13 @@
         <v>2</v>
       </c>
       <c r="P965" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q965">
         <v>1</v>
       </c>
       <c r="R965" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="966" spans="1:18" x14ac:dyDescent="0.25">
@@ -38497,13 +38497,13 @@
         <v>1</v>
       </c>
       <c r="J974" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K974">
         <v>1</v>
       </c>
       <c r="L974" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M974">
         <v>1</v>
@@ -38521,7 +38521,7 @@
         <v>1</v>
       </c>
       <c r="R974" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="975" spans="1:18" x14ac:dyDescent="0.25">
@@ -38556,7 +38556,7 @@
         <v>2</v>
       </c>
       <c r="R975" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="976" spans="1:18" x14ac:dyDescent="0.25">
@@ -38585,7 +38585,7 @@
         <v>1</v>
       </c>
       <c r="N976" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O976">
         <v>5</v>
@@ -38806,7 +38806,7 @@
         <v>2</v>
       </c>
       <c r="J983" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K983">
         <v>5</v>
@@ -38824,7 +38824,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="984" spans="1:18" x14ac:dyDescent="0.25">
@@ -39144,7 +39144,7 @@
         <v>1</v>
       </c>
       <c r="H993" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I993">
         <v>5</v>
@@ -39235,7 +39235,7 @@
         <v>2</v>
       </c>
       <c r="R995" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="996" spans="1:18" x14ac:dyDescent="0.25">
@@ -39738,7 +39738,7 @@
         <v>1</v>
       </c>
       <c r="J1011" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K1011">
         <v>3</v>
@@ -39753,7 +39753,7 @@
         <v>2</v>
       </c>
       <c r="P1011" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q1011">
         <v>4</v>
@@ -40085,7 +40085,7 @@
         <v>1</v>
       </c>
       <c r="H1021" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I1021">
         <v>3</v>
@@ -40106,7 +40106,7 @@
         <v>2</v>
       </c>
       <c r="P1021" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q1021">
         <v>4</v>
@@ -40164,13 +40164,13 @@
         <v>1</v>
       </c>
       <c r="J1023" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K1023">
         <v>1</v>
       </c>
       <c r="L1023" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M1023">
         <v>1</v>
@@ -40246,7 +40246,7 @@
         <v>2</v>
       </c>
       <c r="N1025" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O1025">
         <v>4</v>
@@ -40304,13 +40304,13 @@
         <v>1</v>
       </c>
       <c r="H1027" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I1027">
         <v>2</v>
       </c>
       <c r="J1027" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K1027">
         <v>3</v>
@@ -40319,7 +40319,7 @@
         <v>1</v>
       </c>
       <c r="N1027" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O1027">
         <v>3</v>
@@ -40345,7 +40345,7 @@
         <v>2</v>
       </c>
       <c r="H1028" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I1028">
         <v>3</v>
@@ -40380,7 +40380,7 @@
         <v>1</v>
       </c>
       <c r="H1029" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I1029">
         <v>5</v>
@@ -41026,7 +41026,7 @@
         <v>2</v>
       </c>
       <c r="H1049" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I1049">
         <v>3</v>
@@ -41230,13 +41230,13 @@
         <v>1</v>
       </c>
       <c r="L1055" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M1055">
         <v>1</v>
       </c>
       <c r="N1055" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O1055">
         <v>4</v>
@@ -41723,7 +41723,7 @@
         <v>1</v>
       </c>
       <c r="P1069" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q1069">
         <v>5</v>
@@ -41810,7 +41810,7 @@
         <v>1</v>
       </c>
       <c r="H1072" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I1072">
         <v>4</v>
@@ -41909,7 +41909,7 @@
         <v>1</v>
       </c>
       <c r="H1075" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I1075">
         <v>5</v>
@@ -41985,7 +41985,7 @@
         <v>2</v>
       </c>
       <c r="N1077" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O1077">
         <v>3</v>
